--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1123496.670075417</v>
+        <v>-1126593.625740636</v>
       </c>
     </row>
     <row r="7">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="D2" t="n">
-        <v>18.73217250539946</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>38.48106384277808</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>11.85612676368803</v>
+      </c>
+      <c r="T2" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -753,52 +753,52 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="I3" t="n">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="W3" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,11 +814,11 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>18.96187038700693</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>39.96721874460322</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>35.2031262702465</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>39.96721874460322</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.96721874460322</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>28.32708052853555</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.96721874460322</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>39.96721874460322</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>35.20312627024698</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>35.20312627024649</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>39.96721874460322</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>39.96721874460377</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09418940901761</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>39.96721874460322</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39.96721874460322</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>35.20312627024697</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10893686122888</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.96721874460322</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>155.5625557110021</v>
       </c>
       <c r="G8" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>221.0427070190017</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H9" t="n">
-        <v>90.78679320364648</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I9" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>26.54941815044683</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J10" t="n">
         <v>15.07219909888212</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T10" t="n">
-        <v>16.74134294166207</v>
+        <v>154.051128639548</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>223.4096551115036</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>201.2322393582095</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>53.31978597197259</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>132.2390722294055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2715658672525</v>
+        <v>233.2715658672543</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.31876854531847</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>117.9650415418418</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>81.37259901119292</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>63.12152974641921</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>66.3838197559356</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>13.85794957155431</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.80457674440902</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
-        <v>90.70669256541809</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>9.434273714503275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119292</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>23.89579629161464</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.5541093828361</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>356.8354474575912</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3080,7 +3080,7 @@
         <v>59.51766798614908</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0953759295261</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>361.143016041383</v>
+        <v>386.1362577481046</v>
       </c>
     </row>
     <row r="33">
@@ -3266,16 +3266,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>340.177969156337</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>329.5881190060124</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>381.7811231270409</v>
       </c>
       <c r="G35" t="n">
         <v>409.8432760127576</v>
@@ -3320,13 +3320,13 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.8072150796967</v>
+        <v>225.8139733729758</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.1392878094624</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3433,7 +3433,7 @@
         <v>121.3390400318986</v>
       </c>
       <c r="F37" t="n">
-        <v>120.3261254082604</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G37" t="n">
         <v>140.4471302624964</v>
@@ -3509,16 +3509,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>356.8354474575912</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>381.7811231270409</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.7415951048088</v>
       </c>
       <c r="H38" t="n">
-        <v>283.4614110965953</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>344.6361780637985</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>361.143016041383</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>154.7370575672668</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C40" t="n">
         <v>142.1518984839573</v>
@@ -3679,7 +3679,7 @@
         <v>115.3590671772834</v>
       </c>
       <c r="I40" t="n">
-        <v>56.70965412973848</v>
+        <v>56.70965412973845</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.08582897641301</v>
+        <v>42.08582897641298</v>
       </c>
       <c r="S40" t="n">
         <v>156.2435657437884</v>
       </c>
       <c r="T40" t="n">
-        <v>192.3870718480913</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U40" t="n">
         <v>261.0905289337499</v>
       </c>
       <c r="V40" t="n">
-        <v>227.0427207091575</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W40" t="n">
         <v>261.4280757219204</v>
@@ -3727,7 +3727,7 @@
         <v>200.6147327743666</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.4897307374243</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
     <row r="41">
@@ -3746,13 +3746,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>356.8354474575913</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>381.7811231270409</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127576</v>
+        <v>384.748353398087</v>
       </c>
       <c r="H41" t="n">
         <v>283.5630920045443</v>
@@ -3794,7 +3794,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.8072150796958</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,10 +3803,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.6294197705183</v>
       </c>
       <c r="Y41" t="n">
-        <v>361.1430160413831</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3916,7 +3916,7 @@
         <v>115.3590671772834</v>
       </c>
       <c r="I43" t="n">
-        <v>56.7096541297385</v>
+        <v>56.70965412973847</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.08582897641303</v>
+        <v>42.085828976413</v>
       </c>
       <c r="S43" t="n">
         <v>156.2435657437884</v>
@@ -3958,7 +3958,7 @@
         <v>227.0427207091575</v>
       </c>
       <c r="W43" t="n">
-        <v>261.4280757219205</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X43" t="n">
         <v>200.6147327743666</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>340.177969156337</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>381.7811231270409</v>
       </c>
       <c r="G44" t="n">
         <v>409.7415951048068</v>
@@ -4040,10 +4040,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>344.6361780637985</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>361.143016041383</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.7370575672668</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C46" t="n">
         <v>142.1518984839573</v>
@@ -4153,7 +4153,7 @@
         <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.70965412973848</v>
+        <v>56.70965412973845</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.08582897641301</v>
+        <v>42.08582897641298</v>
       </c>
       <c r="S46" t="n">
         <v>156.2435657437884</v>
       </c>
       <c r="T46" t="n">
-        <v>192.3870718480913</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U46" t="n">
         <v>261.0905289337499</v>
       </c>
       <c r="V46" t="n">
-        <v>227.0427207091575</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W46" t="n">
         <v>261.4280757219204</v>
@@ -4201,7 +4201,7 @@
         <v>200.6147327743666</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.4897307374243</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>115.0544939137607</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="C2" t="n">
-        <v>76.18473245640914</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="D2" t="n">
-        <v>57.26334608731877</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="E2" t="n">
-        <v>57.26334608731877</v>
+        <v>25.33908537917064</v>
       </c>
       <c r="F2" t="n">
         <v>18.39358462996717</v>
@@ -4334,46 +4334,46 @@
         <v>41.17473831177255</v>
       </c>
       <c r="L2" t="n">
-        <v>79.27099151612285</v>
+        <v>72.57095064492114</v>
       </c>
       <c r="M2" t="n">
-        <v>115.828002166762</v>
+        <v>110.6672038492714</v>
       </c>
       <c r="N2" t="n">
-        <v>115.828002166762</v>
+        <v>148.7634570536217</v>
       </c>
       <c r="O2" t="n">
-        <v>153.9242553711123</v>
+        <v>148.7634570536217</v>
       </c>
       <c r="P2" t="n">
-        <v>153.9242553711123</v>
+        <v>148.7634570536217</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9242553711123</v>
       </c>
       <c r="R2" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S2" t="n">
-        <v>115.0544939137607</v>
+        <v>141.9483697512254</v>
       </c>
       <c r="T2" t="n">
-        <v>115.0544939137607</v>
+        <v>103.0786082938738</v>
       </c>
       <c r="U2" t="n">
-        <v>115.0544939137607</v>
+        <v>103.0786082938738</v>
       </c>
       <c r="V2" t="n">
-        <v>115.0544939137607</v>
+        <v>103.0786082938738</v>
       </c>
       <c r="W2" t="n">
-        <v>115.0544939137607</v>
+        <v>103.0786082938738</v>
       </c>
       <c r="X2" t="n">
-        <v>115.0544939137607</v>
+        <v>103.0786082938738</v>
       </c>
       <c r="Y2" t="n">
-        <v>115.0544939137607</v>
+        <v>103.0786082938738</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.0544939137607</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="C3" t="n">
-        <v>115.0544939137607</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="D3" t="n">
-        <v>115.0544939137607</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="E3" t="n">
-        <v>115.0544939137607</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="F3" t="n">
-        <v>80.81800802212544</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="G3" t="n">
-        <v>80.81800802212544</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H3" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I3" t="n">
         <v>3.078485107422247</v>
@@ -4413,16 +4413,16 @@
         <v>3.078485107422247</v>
       </c>
       <c r="L3" t="n">
-        <v>39.63549575806142</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="M3" t="n">
-        <v>39.63549575806142</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="N3" t="n">
         <v>77.73174896241173</v>
       </c>
       <c r="O3" t="n">
-        <v>115.828002166762</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="P3" t="n">
         <v>115.828002166762</v>
@@ -4434,25 +4434,25 @@
         <v>153.9242553711123</v>
       </c>
       <c r="S3" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T3" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U3" t="n">
-        <v>153.9242553711123</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="V3" t="n">
-        <v>153.9242553711123</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="W3" t="n">
-        <v>115.0544939137607</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="X3" t="n">
-        <v>115.0544939137607</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="Y3" t="n">
-        <v>115.0544939137607</v>
+        <v>37.31497099905754</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.03132802508901</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="C4" t="n">
-        <v>57.03132802508901</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="D4" t="n">
-        <v>57.03132802508901</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="E4" t="n">
-        <v>57.03132802508901</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="F4" t="n">
-        <v>57.03132802508901</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="G4" t="n">
-        <v>57.03132802508901</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H4" t="n">
-        <v>57.03132802508901</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I4" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="J4" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K4" t="n">
         <v>3.078485107422247</v>
@@ -4519,19 +4519,19 @@
         <v>115.0544939137607</v>
       </c>
       <c r="U4" t="n">
-        <v>95.90108948244061</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V4" t="n">
-        <v>95.90108948244061</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="W4" t="n">
-        <v>95.90108948244061</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="X4" t="n">
-        <v>95.90108948244061</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="Y4" t="n">
-        <v>95.90108948244061</v>
+        <v>41.94824656477385</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79.12701892870939</v>
+        <v>90.88473429847636</v>
       </c>
       <c r="C5" t="n">
-        <v>79.12701892870939</v>
+        <v>50.51380627362407</v>
       </c>
       <c r="D5" t="n">
-        <v>79.12701892870939</v>
+        <v>50.51380627362407</v>
       </c>
       <c r="E5" t="n">
-        <v>79.12701892870939</v>
+        <v>50.51380627362407</v>
       </c>
       <c r="F5" t="n">
-        <v>38.75609090385765</v>
+        <v>43.5683055244206</v>
       </c>
       <c r="G5" t="n">
-        <v>3.197377499568257</v>
+        <v>3.197377499568302</v>
       </c>
       <c r="H5" t="n">
-        <v>3.197377499568257</v>
+        <v>3.197377499568302</v>
       </c>
       <c r="I5" t="n">
-        <v>3.197377499568257</v>
+        <v>3.197377499568302</v>
       </c>
       <c r="J5" t="n">
-        <v>4.524802107109767</v>
+        <v>4.524802107110315</v>
       </c>
       <c r="K5" t="n">
-        <v>44.09234866426695</v>
+        <v>4.524802107110315</v>
       </c>
       <c r="L5" t="n">
-        <v>83.65989522142414</v>
+        <v>44.09234866426804</v>
       </c>
       <c r="M5" t="n">
-        <v>113.4515871256635</v>
+        <v>83.65989522142578</v>
       </c>
       <c r="N5" t="n">
-        <v>113.4515871256635</v>
+        <v>113.4515871256646</v>
       </c>
       <c r="O5" t="n">
-        <v>113.4515871256635</v>
+        <v>113.4515871256646</v>
       </c>
       <c r="P5" t="n">
-        <v>153.0191336828207</v>
+        <v>153.0191336828223</v>
       </c>
       <c r="Q5" t="n">
-        <v>159.8688749784129</v>
+        <v>159.8688749784151</v>
       </c>
       <c r="R5" t="n">
-        <v>119.4979469535611</v>
+        <v>159.8688749784151</v>
       </c>
       <c r="S5" t="n">
-        <v>79.12701892870939</v>
+        <v>159.8688749784151</v>
       </c>
       <c r="T5" t="n">
-        <v>79.12701892870939</v>
+        <v>159.8688749784151</v>
       </c>
       <c r="U5" t="n">
-        <v>79.12701892870939</v>
+        <v>119.4979469535628</v>
       </c>
       <c r="V5" t="n">
-        <v>79.12701892870939</v>
+        <v>90.88473429847636</v>
       </c>
       <c r="W5" t="n">
-        <v>79.12701892870939</v>
+        <v>90.88473429847636</v>
       </c>
       <c r="X5" t="n">
-        <v>79.12701892870939</v>
+        <v>90.88473429847636</v>
       </c>
       <c r="Y5" t="n">
-        <v>79.12701892870939</v>
+        <v>90.88473429847636</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.56830552441999</v>
+        <v>43.5683055244206</v>
       </c>
       <c r="C6" t="n">
-        <v>43.56830552441999</v>
+        <v>43.5683055244206</v>
       </c>
       <c r="D6" t="n">
-        <v>43.56830552441999</v>
+        <v>43.5683055244206</v>
       </c>
       <c r="E6" t="n">
-        <v>3.197377499568257</v>
+        <v>43.5683055244206</v>
       </c>
       <c r="F6" t="n">
-        <v>3.197377499568257</v>
+        <v>43.5683055244206</v>
       </c>
       <c r="G6" t="n">
-        <v>3.197377499568257</v>
+        <v>43.5683055244206</v>
       </c>
       <c r="H6" t="n">
-        <v>3.197377499568257</v>
+        <v>43.5683055244206</v>
       </c>
       <c r="I6" t="n">
-        <v>3.197377499568257</v>
+        <v>3.197377499568302</v>
       </c>
       <c r="J6" t="n">
-        <v>3.197377499568257</v>
+        <v>3.197377499568302</v>
       </c>
       <c r="K6" t="n">
-        <v>42.76492405672544</v>
+        <v>42.76492405672604</v>
       </c>
       <c r="L6" t="n">
-        <v>42.76492405672544</v>
+        <v>80.73378186409963</v>
       </c>
       <c r="M6" t="n">
-        <v>42.76492405672544</v>
+        <v>80.73378186409963</v>
       </c>
       <c r="N6" t="n">
-        <v>42.76492405672544</v>
+        <v>120.3013284212574</v>
       </c>
       <c r="O6" t="n">
-        <v>80.73378186409849</v>
+        <v>120.3013284212574</v>
       </c>
       <c r="P6" t="n">
-        <v>120.3013284212557</v>
+        <v>120.3013284212574</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.8688749784129</v>
+        <v>159.8688749784151</v>
       </c>
       <c r="R6" t="n">
-        <v>159.8688749784129</v>
+        <v>159.8688749784151</v>
       </c>
       <c r="S6" t="n">
-        <v>159.8688749784129</v>
+        <v>159.8688749784151</v>
       </c>
       <c r="T6" t="n">
-        <v>159.8688749784129</v>
+        <v>124.3101615741252</v>
       </c>
       <c r="U6" t="n">
-        <v>159.8688749784129</v>
+        <v>124.3101615741252</v>
       </c>
       <c r="V6" t="n">
-        <v>124.3101615741235</v>
+        <v>83.9392335492729</v>
       </c>
       <c r="W6" t="n">
-        <v>124.3101615741235</v>
+        <v>83.9392335492729</v>
       </c>
       <c r="X6" t="n">
-        <v>83.93923354927173</v>
+        <v>83.9392335492729</v>
       </c>
       <c r="Y6" t="n">
-        <v>83.93923354927173</v>
+        <v>43.5683055244206</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119.4979469535611</v>
+        <v>119.4979469535628</v>
       </c>
       <c r="C7" t="n">
-        <v>119.4979469535611</v>
+        <v>79.12701892871047</v>
       </c>
       <c r="D7" t="n">
-        <v>98.19068492425041</v>
+        <v>79.12701892871047</v>
       </c>
       <c r="E7" t="n">
-        <v>98.19068492425041</v>
+        <v>79.12701892871047</v>
       </c>
       <c r="F7" t="n">
-        <v>98.19068492425041</v>
+        <v>79.12701892871047</v>
       </c>
       <c r="G7" t="n">
-        <v>57.81975689939866</v>
+        <v>79.12701892871047</v>
       </c>
       <c r="H7" t="n">
-        <v>17.44882887454693</v>
+        <v>38.75609090385817</v>
       </c>
       <c r="I7" t="n">
-        <v>17.44882887454693</v>
+        <v>3.197377499568302</v>
       </c>
       <c r="J7" t="n">
-        <v>17.44882887454693</v>
+        <v>3.197377499568302</v>
       </c>
       <c r="K7" t="n">
-        <v>3.197377499568257</v>
+        <v>3.197377499568302</v>
       </c>
       <c r="L7" t="n">
-        <v>40.84977627355914</v>
+        <v>40.84977627355959</v>
       </c>
       <c r="M7" t="n">
-        <v>80.41732283071634</v>
+        <v>80.41732283071732</v>
       </c>
       <c r="N7" t="n">
-        <v>119.9848693878735</v>
+        <v>119.9848693878751</v>
       </c>
       <c r="O7" t="n">
-        <v>154.1529023220322</v>
+        <v>154.1529023220342</v>
       </c>
       <c r="P7" t="n">
-        <v>159.8688749784129</v>
+        <v>159.8688749784151</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4979469535611</v>
+        <v>159.8688749784151</v>
       </c>
       <c r="R7" t="n">
-        <v>119.4979469535611</v>
+        <v>159.8688749784151</v>
       </c>
       <c r="S7" t="n">
-        <v>119.4979469535611</v>
+        <v>159.8688749784151</v>
       </c>
       <c r="T7" t="n">
-        <v>119.4979469535611</v>
+        <v>119.4979469535628</v>
       </c>
       <c r="U7" t="n">
-        <v>119.4979469535611</v>
+        <v>119.4979469535628</v>
       </c>
       <c r="V7" t="n">
-        <v>119.4979469535611</v>
+        <v>119.4979469535628</v>
       </c>
       <c r="W7" t="n">
-        <v>119.4979469535611</v>
+        <v>119.4979469535628</v>
       </c>
       <c r="X7" t="n">
-        <v>119.4979469535611</v>
+        <v>119.4979469535628</v>
       </c>
       <c r="Y7" t="n">
-        <v>119.4979469535611</v>
+        <v>119.4979469535628</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>677.2692571593334</v>
+        <v>574.0438072739744</v>
       </c>
       <c r="C8" t="n">
-        <v>677.2692571593334</v>
+        <v>574.0438072739744</v>
       </c>
       <c r="D8" t="n">
-        <v>677.2692571593334</v>
+        <v>574.0438072739744</v>
       </c>
       <c r="E8" t="n">
-        <v>410.8916005921556</v>
+        <v>307.6661507067965</v>
       </c>
       <c r="F8" t="n">
-        <v>403.9460998429521</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G8" t="n">
         <v>137.5684432757742</v>
@@ -4808,7 +4808,7 @@
         <v>142.2640879052547</v>
       </c>
       <c r="L8" t="n">
-        <v>294.5174947515909</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M8" t="n">
         <v>495.5981834030607</v>
@@ -4829,25 +4829,25 @@
         <v>1054.855520006024</v>
       </c>
       <c r="S8" t="n">
-        <v>900.5447187946886</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T8" t="n">
-        <v>900.5447187946886</v>
+        <v>840.4214638411523</v>
       </c>
       <c r="U8" t="n">
-        <v>900.5447187946886</v>
+        <v>840.4214638411523</v>
       </c>
       <c r="V8" t="n">
-        <v>900.5447187946886</v>
+        <v>840.4214638411523</v>
       </c>
       <c r="W8" t="n">
-        <v>677.2692571593334</v>
+        <v>840.4214638411523</v>
       </c>
       <c r="X8" t="n">
-        <v>677.2692571593334</v>
+        <v>840.4214638411523</v>
       </c>
       <c r="Y8" t="n">
-        <v>677.2692571593334</v>
+        <v>840.4214638411523</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>462.9384134849053</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="C9" t="n">
-        <v>462.9384134849053</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="D9" t="n">
-        <v>462.9384134849053</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="E9" t="n">
-        <v>303.7009584794498</v>
+        <v>405.5125167142792</v>
       </c>
       <c r="F9" t="n">
-        <v>157.1664005063347</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G9" t="n">
-        <v>157.1664005063347</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H9" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I9" t="n">
         <v>21.09711040012049</v>
@@ -4905,28 +4905,28 @@
         <v>1054.855520006024</v>
       </c>
       <c r="R9" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S9" t="n">
-        <v>887.8833378166541</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T9" t="n">
-        <v>691.0742594480918</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U9" t="n">
-        <v>462.9384134849053</v>
+        <v>826.7196740428378</v>
       </c>
       <c r="V9" t="n">
-        <v>462.9384134849053</v>
+        <v>591.5675658110952</v>
       </c>
       <c r="W9" t="n">
-        <v>462.9384134849053</v>
+        <v>591.5675658110952</v>
       </c>
       <c r="X9" t="n">
-        <v>462.9384134849053</v>
+        <v>591.5675658110952</v>
       </c>
       <c r="Y9" t="n">
-        <v>462.9384134849053</v>
+        <v>564.7499717197347</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.7170450051586</v>
+        <v>159.7059716361717</v>
       </c>
       <c r="C10" t="n">
-        <v>351.7808620772518</v>
+        <v>159.7059716361717</v>
       </c>
       <c r="D10" t="n">
-        <v>351.7808620772518</v>
+        <v>159.7059716361717</v>
       </c>
       <c r="E10" t="n">
-        <v>351.7808620772518</v>
+        <v>159.7059716361717</v>
       </c>
       <c r="F10" t="n">
-        <v>204.8909145793414</v>
+        <v>159.7059716361717</v>
       </c>
       <c r="G10" t="n">
-        <v>36.32155393434486</v>
+        <v>159.7059716361717</v>
       </c>
       <c r="H10" t="n">
-        <v>36.32155393434486</v>
+        <v>159.7059716361717</v>
       </c>
       <c r="I10" t="n">
         <v>36.32155393434486</v>
@@ -4963,19 +4963,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L10" t="n">
         <v>316.7083726551008</v>
       </c>
       <c r="M10" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N10" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227042</v>
       </c>
       <c r="O10" t="n">
-        <v>918.4699372075539</v>
+        <v>918.4699372075538</v>
       </c>
       <c r="P10" t="n">
         <v>1048.360858816802</v>
@@ -4984,28 +4984,28 @@
         <v>1054.855520006024</v>
       </c>
       <c r="R10" t="n">
-        <v>926.0629918407072</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S10" t="n">
-        <v>719.2759572512186</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="T10" t="n">
-        <v>702.3655098353984</v>
+        <v>692.4612847705275</v>
       </c>
       <c r="U10" t="n">
-        <v>702.3655098353984</v>
+        <v>426.0836282033496</v>
       </c>
       <c r="V10" t="n">
-        <v>702.3655098353984</v>
+        <v>426.0836282033496</v>
       </c>
       <c r="W10" t="n">
-        <v>702.3655098353984</v>
+        <v>159.7059716361717</v>
       </c>
       <c r="X10" t="n">
-        <v>702.3655098353984</v>
+        <v>159.7059716361717</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.3655098353984</v>
+        <v>159.7059716361717</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2185.045504370169</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C11" t="n">
-        <v>1816.082987429757</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D11" t="n">
-        <v>1457.817288823006</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5054,37 +5054,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>3012.050264895652</v>
       </c>
       <c r="V11" t="n">
-        <v>2961.784676410102</v>
+        <v>2680.987377552081</v>
       </c>
       <c r="W11" t="n">
-        <v>2961.784676410102</v>
+        <v>2680.987377552081</v>
       </c>
       <c r="X11" t="n">
-        <v>2961.784676410102</v>
+        <v>2307.521619291001</v>
       </c>
       <c r="Y11" t="n">
-        <v>2571.645344434291</v>
+        <v>1917.382287315189</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
         <v>160.189385922801</v>
@@ -5124,7 +5124,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,22 +5136,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>644.3338566427974</v>
+        <v>561.3907139632884</v>
       </c>
       <c r="C13" t="n">
-        <v>644.3338566427974</v>
+        <v>561.3907139632884</v>
       </c>
       <c r="D13" t="n">
-        <v>494.2172172304616</v>
+        <v>507.5323442946292</v>
       </c>
       <c r="E13" t="n">
-        <v>346.3041236480685</v>
+        <v>359.6192507122361</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5224,25 +5224,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783662</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.740577577775</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W13" t="n">
-        <v>872.3234075408147</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="X13" t="n">
-        <v>644.3338566427974</v>
+        <v>963.8317579370582</v>
       </c>
       <c r="Y13" t="n">
-        <v>644.3338566427974</v>
+        <v>743.0391787935281</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555044</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614632</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007882</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.408479409638</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200302</v>
+        <v>742.422574620032</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4394675364367</v>
+        <v>328.4394675364385</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128767</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594978</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619166</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698319</v>
+        <v>731.1919378216778</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.56231032196</v>
+        <v>1323.210292073806</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721296</v>
+        <v>1775.337880784798</v>
       </c>
       <c r="O15" t="n">
-        <v>2344.53474872149</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.4491011061236</v>
+        <v>675.7074548523129</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061236</v>
+        <v>506.7712719244061</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937879</v>
+        <v>506.7712719244061</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>358.8581783420129</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>211.9682308441026</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>211.9682308441026</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
         <v>171.7937461156345</v>
@@ -5473,13 +5473,13 @@
         <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.906754930821</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.917204032804</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.1246248892736</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
         <v>1591.032978284208</v>
@@ -5501,7 +5501,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G17" t="n">
         <v>380.2757138127629</v>
@@ -5522,25 +5522,25 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q17" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
@@ -5589,25 +5589,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>107.3505653988748</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>107.3505653988748</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>107.3505653988748</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>699.3689196510026</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N18" t="n">
-        <v>1321.464883050339</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O18" t="n">
-        <v>1868.341358050533</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P18" t="n">
         <v>2287.924876476609</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476001</v>
+        <v>852.3722300260596</v>
       </c>
       <c r="C19" t="n">
-        <v>326.1595320196932</v>
+        <v>852.3722300260596</v>
       </c>
       <c r="D19" t="n">
-        <v>176.0428926073575</v>
+        <v>702.2555906137238</v>
       </c>
       <c r="E19" t="n">
-        <v>176.0428926073575</v>
+        <v>554.3424970313307</v>
       </c>
       <c r="F19" t="n">
-        <v>176.0428926073575</v>
+        <v>407.4525495334203</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160703</v>
+        <v>240.2383547079992</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I19" t="n">
         <v>93.84834815160703</v>
@@ -5695,28 +5695,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819387</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213699</v>
+        <v>1254.813273999829</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778398</v>
+        <v>1034.020694856299</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963573</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J20" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K20" t="n">
         <v>842.974607438402</v>
@@ -5759,43 +5759,43 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I21" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J21" t="n">
-        <v>94.88738072612962</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>94.88738072612962</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L21" t="n">
-        <v>107.3505653988748</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M21" t="n">
-        <v>699.3689196510026</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="N21" t="n">
-        <v>1321.464883050339</v>
+        <v>1354.324626146541</v>
       </c>
       <c r="O21" t="n">
         <v>1868.341358050533</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476001</v>
+        <v>785.3178666362255</v>
       </c>
       <c r="C22" t="n">
-        <v>326.1595320196932</v>
+        <v>616.3816837083186</v>
       </c>
       <c r="D22" t="n">
-        <v>326.1595320196932</v>
+        <v>466.2650442959829</v>
       </c>
       <c r="E22" t="n">
-        <v>326.1595320196932</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="F22" t="n">
-        <v>326.1595320196932</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G22" t="n">
-        <v>158.945337194272</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L22" t="n">
         <v>820.2210160948589</v>
@@ -5932,28 +5932,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.526309819387</v>
+        <v>1415.748461508013</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213699</v>
+        <v>1187.758910609995</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778398</v>
+        <v>966.9663314664652</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C23" t="n">
         <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F23" t="n">
         <v>794.2588208963562</v>
@@ -5987,22 +5987,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>424.1437450015196</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
-        <v>893.7741287892015</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
         <v>4202.751434297606</v>
@@ -6063,31 +6063,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K24" t="n">
-        <v>94.88738072612962</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L24" t="n">
-        <v>107.3505653988748</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M24" t="n">
-        <v>699.3689196510026</v>
+        <v>1154.278642310989</v>
       </c>
       <c r="N24" t="n">
-        <v>1321.464883050339</v>
+        <v>1776.374605710325</v>
       </c>
       <c r="O24" t="n">
-        <v>1868.341358050533</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="P24" t="n">
-        <v>2287.924876476609</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q24" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>654.5023284669178</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C25" t="n">
-        <v>485.5661455390109</v>
+        <v>507.8079968499329</v>
       </c>
       <c r="D25" t="n">
-        <v>485.5661455390109</v>
+        <v>357.6913574375972</v>
       </c>
       <c r="E25" t="n">
-        <v>485.5661455390109</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="F25" t="n">
-        <v>485.5661455390109</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135898</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H25" t="n">
         <v>176.4792337520202</v>
@@ -6169,28 +6169,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2337.789577552444</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.110795266826</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1829.034581581553</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1574.350093375666</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.932923338705</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.943372440688</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>836.1507932971575</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963563</v>
       </c>
       <c r="G26" t="n">
         <v>380.2757138127629</v>
@@ -6227,25 +6227,25 @@
         <v>373.34422365072</v>
       </c>
       <c r="K26" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6303,28 +6303,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>424.3570907149658</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L27" t="n">
-        <v>915.0894235587172</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M27" t="n">
-        <v>1507.107777810845</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.203741210181</v>
+        <v>1354.324626146541</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6361,22 +6361,22 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C28" t="n">
-        <v>485.5661455390109</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D28" t="n">
-        <v>485.5661455390109</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E28" t="n">
-        <v>485.5661455390109</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="F28" t="n">
-        <v>485.5661455390109</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="G28" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6449,64 +6449,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>424.1437450015205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7741287892025</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>94.88738072612963</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J30" t="n">
-        <v>94.88738072612963</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K30" t="n">
-        <v>94.88738072612963</v>
+        <v>469.2754699397069</v>
       </c>
       <c r="L30" t="n">
-        <v>107.3505653988748</v>
+        <v>960.0078027834583</v>
       </c>
       <c r="M30" t="n">
-        <v>699.3689196510026</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="N30" t="n">
-        <v>1321.464883050339</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="O30" t="n">
-        <v>1868.341358050533</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P30" t="n">
-        <v>2287.924876476609</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q30" t="n">
         <v>2518.486150461856</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>746.1252502501684</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>577.1890673222615</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D31" t="n">
-        <v>427.0724279099258</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E31" t="n">
-        <v>402.9352599385978</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="F31" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G31" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
         <v>820.2210160948589</v>
@@ -6643,28 +6643,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2429.412499335695</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>2209.733717050076</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1920.657503364803</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1665.973015158916</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1376.555845121956</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>1148.566294223938</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>927.7737150804081</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.224468905844</v>
+        <v>2291.876062224359</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.261951965432</v>
+        <v>1922.913545283947</v>
       </c>
       <c r="D32" t="n">
-        <v>1589.996253358682</v>
+        <v>1564.647846677196</v>
       </c>
       <c r="E32" t="n">
         <v>1204.208000760437</v>
@@ -6701,22 +6701,22 @@
         <v>372.3074987251948</v>
       </c>
       <c r="K32" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L32" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M32" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N32" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O32" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P32" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q32" t="n">
         <v>4514.49737412729</v>
@@ -6728,22 +6728,22 @@
         <v>4580.462304752362</v>
       </c>
       <c r="T32" t="n">
-        <v>4379.355864419507</v>
+        <v>4379.253156431681</v>
       </c>
       <c r="U32" t="n">
-        <v>4125.912535139057</v>
+        <v>4125.80982715123</v>
       </c>
       <c r="V32" t="n">
-        <v>3794.849647795486</v>
+        <v>3794.746939807659</v>
       </c>
       <c r="W32" t="n">
-        <v>3442.080992525372</v>
+        <v>3441.978284537545</v>
       </c>
       <c r="X32" t="n">
-        <v>3068.615234264292</v>
+        <v>3068.512526276465</v>
       </c>
       <c r="Y32" t="n">
-        <v>2703.824308969966</v>
+        <v>2678.47590228848</v>
       </c>
     </row>
     <row r="33">
@@ -6789,13 +6789,13 @@
         <v>1506.071052885318</v>
       </c>
       <c r="N33" t="n">
-        <v>2128.167016284654</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="O33" t="n">
-        <v>2552.77562977024</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P33" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q33" t="n">
         <v>2552.77562977024</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2266.527655542873</v>
+        <v>2291.876062224359</v>
       </c>
       <c r="C35" t="n">
         <v>1922.913545283947</v>
       </c>
       <c r="D35" t="n">
-        <v>1589.996253358682</v>
+        <v>1564.647846677196</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.208000760437</v>
+        <v>1178.859594078952</v>
       </c>
       <c r="F35" t="n">
         <v>793.22209597083</v>
@@ -6929,58 +6929,58 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H35" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322608066</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3074987251937</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L35" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M35" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N35" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O35" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P35" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R35" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S35" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T35" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U35" t="n">
-        <v>4100.564128457571</v>
+        <v>4125.809827151228</v>
       </c>
       <c r="V35" t="n">
-        <v>3769.501241114001</v>
+        <v>3794.746939807657</v>
       </c>
       <c r="W35" t="n">
-        <v>3416.732585843887</v>
+        <v>3442.080992525372</v>
       </c>
       <c r="X35" t="n">
-        <v>3043.266827582807</v>
+        <v>3068.615234264292</v>
       </c>
       <c r="Y35" t="n">
-        <v>2653.127495606995</v>
+        <v>2678.47590228848</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H36" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I36" t="n">
-        <v>93.85065580060314</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J36" t="n">
-        <v>106.3138404733484</v>
+        <v>195.3886163360656</v>
       </c>
       <c r="K36" t="n">
-        <v>106.3138404733484</v>
+        <v>525.8973588994244</v>
       </c>
       <c r="L36" t="n">
-        <v>106.3138404733484</v>
+        <v>525.8973588994244</v>
       </c>
       <c r="M36" t="n">
-        <v>698.3321947254761</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.428158124812</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O36" t="n">
-        <v>1867.304633125007</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P36" t="n">
         <v>2286.888151551083</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>920.9464372636326</v>
+        <v>920.9464372636324</v>
       </c>
       <c r="C37" t="n">
-        <v>777.358661017211</v>
+        <v>777.3586610172109</v>
       </c>
       <c r="D37" t="n">
-        <v>652.5904282863607</v>
+        <v>652.5904282863606</v>
       </c>
       <c r="E37" t="n">
-        <v>530.025741385453</v>
+        <v>530.0257413854529</v>
       </c>
       <c r="F37" t="n">
-        <v>408.4842005690283</v>
+        <v>408.484200569028</v>
       </c>
       <c r="G37" t="n">
-        <v>266.6184124250925</v>
+        <v>266.6184124250922</v>
       </c>
       <c r="H37" t="n">
-        <v>150.0941021450083</v>
+        <v>150.094102145008</v>
       </c>
       <c r="I37" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J37" t="n">
-        <v>196.6377195041583</v>
+        <v>196.637719504158</v>
       </c>
       <c r="K37" t="n">
-        <v>481.1104198632458</v>
+        <v>481.1104198632456</v>
       </c>
       <c r="L37" t="n">
-        <v>893.7162113349038</v>
+        <v>893.7162113349037</v>
       </c>
       <c r="M37" t="n">
         <v>1337.789776767887</v>
@@ -7111,10 +7111,10 @@
         <v>2169.196046351671</v>
       </c>
       <c r="P37" t="n">
-        <v>2484.5704545764</v>
+        <v>2484.570454576399</v>
       </c>
       <c r="Q37" t="n">
-        <v>2627.127561518359</v>
+        <v>2627.127561518358</v>
       </c>
       <c r="R37" t="n">
         <v>2584.616623158345</v>
@@ -7132,10 +7132,10 @@
         <v>1739.400575446439</v>
       </c>
       <c r="W37" t="n">
-        <v>1475.331812090963</v>
+        <v>1475.331812090964</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.690667874431</v>
+        <v>1272.690667874432</v>
       </c>
       <c r="Y37" t="n">
         <v>1077.246495412387</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.121760918017</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.159243977605</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D38" t="n">
-        <v>1589.893545370855</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.10529277261</v>
+        <v>1178.756886091125</v>
       </c>
       <c r="F38" t="n">
-        <v>793.1193879830028</v>
+        <v>793.119387983003</v>
       </c>
       <c r="G38" t="n">
-        <v>379.1362808994092</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H38" t="n">
         <v>92.81162322608056</v>
@@ -7214,10 +7214,10 @@
         <v>3416.629877856059</v>
       </c>
       <c r="X38" t="n">
-        <v>3068.512526276465</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y38" t="n">
-        <v>2703.721600982139</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J39" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K39" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="L39" t="n">
-        <v>583.5439560698319</v>
+        <v>731.1919378216778</v>
       </c>
       <c r="M39" t="n">
-        <v>1175.56231032196</v>
+        <v>1323.210292073806</v>
       </c>
       <c r="N39" t="n">
-        <v>1797.658273721296</v>
+        <v>1323.210292073806</v>
       </c>
       <c r="O39" t="n">
-        <v>2344.53474872149</v>
+        <v>1870.086767074</v>
       </c>
       <c r="P39" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q39" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R39" t="n">
         <v>2552.77562977024</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>920.9464372636322</v>
+        <v>920.9464372636332</v>
       </c>
       <c r="C40" t="n">
-        <v>777.3586610172107</v>
+        <v>777.3586610172117</v>
       </c>
       <c r="D40" t="n">
-        <v>652.5904282863604</v>
+        <v>652.5904282863614</v>
       </c>
       <c r="E40" t="n">
-        <v>530.0257413854526</v>
+        <v>530.0257413854538</v>
       </c>
       <c r="F40" t="n">
-        <v>408.4842005690277</v>
+        <v>408.4842005690289</v>
       </c>
       <c r="G40" t="n">
         <v>266.6184124250925</v>
@@ -7333,10 +7333,10 @@
         <v>196.6377195041583</v>
       </c>
       <c r="K40" t="n">
-        <v>481.1104198632458</v>
+        <v>481.1104198632456</v>
       </c>
       <c r="L40" t="n">
-        <v>893.7162113349038</v>
+        <v>893.7162113349037</v>
       </c>
       <c r="M40" t="n">
         <v>1337.789776767887</v>
@@ -7354,7 +7354,7 @@
         <v>2627.127561518359</v>
       </c>
       <c r="R40" t="n">
-        <v>2584.616623158345</v>
+        <v>2584.616623158346</v>
       </c>
       <c r="S40" t="n">
         <v>2426.794839578761</v>
@@ -7363,19 +7363,19 @@
         <v>2232.464463974628</v>
       </c>
       <c r="U40" t="n">
-        <v>1968.73665697084</v>
+        <v>1968.736656970841</v>
       </c>
       <c r="V40" t="n">
         <v>1739.400575446439</v>
       </c>
       <c r="W40" t="n">
-        <v>1475.331812090963</v>
+        <v>1475.331812090964</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.690667874431</v>
+        <v>1272.690667874432</v>
       </c>
       <c r="Y40" t="n">
-        <v>1077.246495412387</v>
+        <v>1077.246495412388</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2291.876062224359</v>
+        <v>2266.527655542873</v>
       </c>
       <c r="C41" t="n">
-        <v>1922.913545283947</v>
+        <v>1897.565138602462</v>
       </c>
       <c r="D41" t="n">
-        <v>1564.647846677196</v>
+        <v>1539.299439995711</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.511187397467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.22209597083</v>
+        <v>767.8736892893446</v>
       </c>
       <c r="G41" t="n">
         <v>379.2389888872365</v>
@@ -7418,10 +7418,10 @@
         <v>1461.45766301865</v>
       </c>
       <c r="M41" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O41" t="n">
         <v>3602.609239333932</v>
@@ -7442,19 +7442,19 @@
         <v>4353.904749750193</v>
       </c>
       <c r="U41" t="n">
-        <v>4100.564128457571</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V41" t="n">
-        <v>3769.501241114001</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W41" t="n">
-        <v>3416.732585843887</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X41" t="n">
         <v>3043.266827582807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2678.47590228848</v>
+        <v>2653.127495606995</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J42" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K42" t="n">
-        <v>423.3203657894393</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="L42" t="n">
-        <v>423.3203657894393</v>
+        <v>731.1919378216778</v>
       </c>
       <c r="M42" t="n">
-        <v>698.3321947254761</v>
+        <v>731.1919378216778</v>
       </c>
       <c r="N42" t="n">
         <v>1320.428158124812</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>920.9464372636328</v>
+        <v>920.946437263633</v>
       </c>
       <c r="C43" t="n">
-        <v>777.3586610172113</v>
+        <v>777.3586610172115</v>
       </c>
       <c r="D43" t="n">
-        <v>652.5904282863609</v>
+        <v>652.5904282863612</v>
       </c>
       <c r="E43" t="n">
-        <v>530.0257413854531</v>
+        <v>530.0257413854534</v>
       </c>
       <c r="F43" t="n">
-        <v>408.4842005690281</v>
+        <v>408.4842005690284</v>
       </c>
       <c r="G43" t="n">
-        <v>266.6184124250923</v>
+        <v>266.6184124250924</v>
       </c>
       <c r="H43" t="n">
-        <v>150.0941021450082</v>
+        <v>150.0941021450083</v>
       </c>
       <c r="I43" t="n">
         <v>92.81162322608053</v>
       </c>
       <c r="J43" t="n">
-        <v>196.6377195041583</v>
+        <v>196.6377195041582</v>
       </c>
       <c r="K43" t="n">
         <v>481.1104198632457</v>
       </c>
       <c r="L43" t="n">
-        <v>893.7162113349036</v>
+        <v>893.7162113349038</v>
       </c>
       <c r="M43" t="n">
         <v>1337.789776767887</v>
       </c>
       <c r="N43" t="n">
-        <v>1777.329615948117</v>
+        <v>1777.329615948118</v>
       </c>
       <c r="O43" t="n">
         <v>2169.196046351671</v>
       </c>
       <c r="P43" t="n">
-        <v>2484.570454576399</v>
+        <v>2484.5704545764</v>
       </c>
       <c r="Q43" t="n">
         <v>2627.127561518358</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.121760918015</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.159243977603</v>
+        <v>1922.810837296118</v>
       </c>
       <c r="D44" t="n">
-        <v>1589.893545370853</v>
+        <v>1564.545138689367</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.105292772608</v>
+        <v>1178.756886091123</v>
       </c>
       <c r="F44" t="n">
         <v>793.1193879830009</v>
@@ -7646,16 +7646,16 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J44" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128763</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L44" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N44" t="n">
         <v>2919.747202874795</v>
@@ -7688,10 +7688,10 @@
         <v>3416.629877856058</v>
       </c>
       <c r="X44" t="n">
-        <v>3068.512526276463</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y44" t="n">
-        <v>2703.721600982137</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I45" t="n">
-        <v>93.85065580060312</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J45" t="n">
-        <v>106.3138404733484</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K45" t="n">
-        <v>106.3138404733484</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L45" t="n">
-        <v>106.3138404733484</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M45" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.428158124812</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="O45" t="n">
         <v>1867.304633125007</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>920.9464372636324</v>
+        <v>920.9464372636326</v>
       </c>
       <c r="C46" t="n">
-        <v>777.3586610172109</v>
+        <v>777.358661017211</v>
       </c>
       <c r="D46" t="n">
-        <v>652.5904282863606</v>
+        <v>652.5904282863607</v>
       </c>
       <c r="E46" t="n">
-        <v>530.0257413854529</v>
+        <v>530.0257413854531</v>
       </c>
       <c r="F46" t="n">
-        <v>408.484200569028</v>
+        <v>408.4842005690282</v>
       </c>
       <c r="G46" t="n">
-        <v>266.6184124250922</v>
+        <v>266.6184124250925</v>
       </c>
       <c r="H46" t="n">
         <v>150.0941021450083</v>
@@ -7804,19 +7804,19 @@
         <v>92.81162322608051</v>
       </c>
       <c r="J46" t="n">
-        <v>196.6377195041582</v>
+        <v>196.6377195041583</v>
       </c>
       <c r="K46" t="n">
-        <v>481.1104198632457</v>
+        <v>481.1104198632459</v>
       </c>
       <c r="L46" t="n">
-        <v>893.7162113349038</v>
+        <v>893.716211334904</v>
       </c>
       <c r="M46" t="n">
         <v>1337.789776767887</v>
       </c>
       <c r="N46" t="n">
-        <v>1777.329615948117</v>
+        <v>1777.329615948118</v>
       </c>
       <c r="O46" t="n">
         <v>2169.196046351671</v>
@@ -7831,7 +7831,7 @@
         <v>2584.616623158345</v>
       </c>
       <c r="S46" t="n">
-        <v>2426.79483957876</v>
+        <v>2426.794839578761</v>
       </c>
       <c r="T46" t="n">
         <v>2232.464463974628</v>
@@ -7843,10 +7843,10 @@
         <v>1739.400575446439</v>
       </c>
       <c r="W46" t="n">
-        <v>1475.331812090963</v>
+        <v>1475.331812090964</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.690667874431</v>
+        <v>1272.690667874432</v>
       </c>
       <c r="Y46" t="n">
         <v>1077.246495412387</v>
@@ -7982,22 +7982,22 @@
         <v>240.6620276789126</v>
       </c>
       <c r="L2" t="n">
-        <v>252.0299206180583</v>
+        <v>245.2622025663394</v>
       </c>
       <c r="M2" t="n">
-        <v>242.5511922549844</v>
+        <v>244.1059827132785</v>
       </c>
       <c r="N2" t="n">
-        <v>204.2917325281876</v>
+        <v>242.7727963709657</v>
       </c>
       <c r="O2" t="n">
-        <v>244.8579146936526</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P2" t="n">
         <v>210.9873633211545</v>
       </c>
       <c r="Q2" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8061,19 +8061,19 @@
         <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>159.1247332407705</v>
+        <v>160.6795236990645</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>159.973720214579</v>
       </c>
       <c r="N3" t="n">
-        <v>150.2310236677773</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
-        <v>163.1546825303321</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>158.0709840006057</v>
       </c>
       <c r="Q3" t="n">
         <v>168.8471891366353</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>240.1386215833912</v>
+        <v>200.1714028387872</v>
       </c>
       <c r="L5" t="n">
-        <v>251.0230374051363</v>
+        <v>251.0230374051359</v>
       </c>
       <c r="M5" t="n">
-        <v>232.9435516959161</v>
+        <v>242.8181523554285</v>
       </c>
       <c r="N5" t="n">
-        <v>201.4728612868992</v>
+        <v>231.5654793719877</v>
       </c>
       <c r="O5" t="n">
-        <v>203.7150706715034</v>
+        <v>203.7150706715024</v>
       </c>
       <c r="P5" t="n">
-        <v>248.6828142651254</v>
+        <v>248.6828142651251</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>118.9221208762879</v>
+        <v>118.9221208762876</v>
       </c>
       <c r="K6" t="n">
-        <v>164.2797975599921</v>
+        <v>164.2797975599922</v>
       </c>
       <c r="L6" t="n">
-        <v>120.3631577310974</v>
+        <v>158.7155393547064</v>
       </c>
       <c r="M6" t="n">
-        <v>120.9057358156082</v>
+        <v>120.9057358156074</v>
       </c>
       <c r="N6" t="n">
-        <v>109.5515640928189</v>
+        <v>149.5187828374219</v>
       </c>
       <c r="O6" t="n">
-        <v>161.0148977076861</v>
+        <v>122.6625160840762</v>
       </c>
       <c r="P6" t="n">
-        <v>157.9430517612031</v>
+        <v>117.9758330165993</v>
       </c>
       <c r="Q6" t="n">
-        <v>169.2543695297945</v>
+        <v>169.2543695297947</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>167.8826389006959</v>
+        <v>167.882638900696</v>
       </c>
       <c r="N7" t="n">
-        <v>156.904201259913</v>
+        <v>156.9042012599132</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>51.31264782909039</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>151.9580857992744</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>151.9580857992772</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>158.5207149607582</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>49.76293260069252</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>95.29568704623978</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>13.18197579352579</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23464,10 +23464,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50.29152613729178</v>
+        <v>50.29152613728999</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>144.5132116366188</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>22.48894825011212</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>84.16945386597401</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>77.3324600455347</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>220.1391785806554</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>132.5760130750149</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>90.63179579304087</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>157.8125473841246</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>84.16945386597401</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.5381663549545</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>61.86693864009514</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>81.80457674440902</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>202236.4765586652</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>170498.5494854603</v>
+        <v>170498.5494854602</v>
       </c>
       <c r="F2" t="n">
         <v>200669.9429095078</v>
@@ -26341,10 +26341,10 @@
         <v>201670.7442796398</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660708</v>
@@ -26366,19 +26366,19 @@
         <v>46642.83166352184</v>
       </c>
       <c r="C3" t="n">
-        <v>4058.566722559185</v>
+        <v>4058.566722560716</v>
       </c>
       <c r="D3" t="n">
-        <v>562029.549353187</v>
+        <v>562029.5493531853</v>
       </c>
       <c r="E3" t="n">
         <v>551695.2512473338</v>
       </c>
       <c r="F3" t="n">
-        <v>306241.8686975061</v>
+        <v>306241.868697506</v>
       </c>
       <c r="G3" t="n">
-        <v>3551.884390161652</v>
+        <v>3551.884390161528</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>10068.3394680798</v>
       </c>
       <c r="K3" t="n">
-        <v>382.4887147729879</v>
+        <v>382.4887147730662</v>
       </c>
       <c r="L3" t="n">
-        <v>73424.38248432692</v>
+        <v>73424.38248432678</v>
       </c>
       <c r="M3" t="n">
-        <v>141470.0145401776</v>
+        <v>141470.0145401777</v>
       </c>
       <c r="N3" t="n">
-        <v>80518.24125636049</v>
+        <v>80518.24125636058</v>
       </c>
       <c r="O3" t="n">
-        <v>3118.611125660878</v>
+        <v>3118.611125660769</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390153.4377641141</v>
+        <v>390153.437764114</v>
       </c>
       <c r="C4" t="n">
-        <v>396037.8758655289</v>
+        <v>396037.8758655286</v>
       </c>
       <c r="D4" t="n">
         <v>246753.8673982314</v>
@@ -26427,37 +26427,37 @@
         <v>7940.571207054552</v>
       </c>
       <c r="F4" t="n">
-        <v>8110.779805506621</v>
+        <v>8110.779805506622</v>
       </c>
       <c r="G4" t="n">
+        <v>9342.252565816092</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9342.252565816116</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9342.252565816078</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9342.252565816096</v>
+      </c>
+      <c r="K4" t="n">
         <v>9342.252565816061</v>
       </c>
-      <c r="H4" t="n">
-        <v>9342.252565816061</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9342.252565816096</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9342.252565816061</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9342.252565816118</v>
-      </c>
       <c r="L4" t="n">
-        <v>18653.15784945321</v>
+        <v>18653.15784945325</v>
       </c>
       <c r="M4" t="n">
-        <v>18653.15784945328</v>
+        <v>18653.15784945332</v>
       </c>
       <c r="N4" t="n">
         <v>18653.15784945325</v>
       </c>
       <c r="O4" t="n">
-        <v>18653.15784945332</v>
+        <v>18653.15784945333</v>
       </c>
       <c r="P4" t="n">
-        <v>18653.15784945334</v>
+        <v>18653.15784945335</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>36730.71216531784</v>
       </c>
       <c r="C5" t="n">
-        <v>36906.73882392828</v>
+        <v>36906.73882392835</v>
       </c>
       <c r="D5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26485,7 +26485,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
         <v>100930.0394572385</v>
@@ -26494,7 +26494,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
         <v>102251.8335631312</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-271290.5050342886</v>
+        <v>-271320.7446933626</v>
       </c>
       <c r="C6" t="n">
-        <v>-231742.7389459455</v>
+        <v>-231742.7389459469</v>
       </c>
       <c r="D6" t="n">
-        <v>-666570.7774896139</v>
+        <v>-666570.7774896122</v>
       </c>
       <c r="E6" t="n">
-        <v>-463443.6135303214</v>
+        <v>-463791.2324601275</v>
       </c>
       <c r="F6" t="n">
-        <v>-213824.8341073433</v>
+        <v>-213870.7391029088</v>
       </c>
       <c r="G6" t="n">
-        <v>87846.56786642355</v>
+        <v>87810.67088455932</v>
       </c>
       <c r="H6" t="n">
-        <v>91398.45225658521</v>
+        <v>91362.55527472083</v>
       </c>
       <c r="I6" t="n">
-        <v>91398.45225658509</v>
+        <v>91362.55527472081</v>
       </c>
       <c r="J6" t="n">
-        <v>81330.11278850536</v>
+        <v>81294.21580664105</v>
       </c>
       <c r="K6" t="n">
-        <v>91015.96354181216</v>
+        <v>90980.06655994778</v>
       </c>
       <c r="L6" t="n">
-        <v>10931.06856915969</v>
+        <v>10931.06856915972</v>
       </c>
       <c r="M6" t="n">
-        <v>-57114.56348669109</v>
+        <v>-57114.56348669132</v>
       </c>
       <c r="N6" t="n">
-        <v>3837.209797125921</v>
+        <v>3837.209797125804</v>
       </c>
       <c r="O6" t="n">
-        <v>81236.83992782547</v>
+        <v>81236.83992782555</v>
       </c>
       <c r="P6" t="n">
-        <v>84355.45105348618</v>
+        <v>84355.45105348612</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>25.09492261467054</v>
       </c>
       <c r="N2" t="n">
+        <v>25.09492261467057</v>
+      </c>
+      <c r="O2" t="n">
         <v>25.09492261467054</v>
       </c>
-      <c r="O2" t="n">
-        <v>25.09492261467053</v>
-      </c>
       <c r="P2" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>38.95100569983509</v>
+        <v>38.95100569983659</v>
       </c>
       <c r="D3" t="n">
         <v>614.055013769478</v>
@@ -26790,16 +26790,16 @@
         <v>38.48106384277808</v>
       </c>
       <c r="C4" t="n">
-        <v>39.96721874460322</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="D4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1173.104351895088</v>
@@ -26820,7 +26820,7 @@
         <v>1160.145290326007</v>
       </c>
       <c r="M4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="N4" t="n">
         <v>1160.145290326007</v>
@@ -26960,16 +26960,16 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>3.929744980709771</v>
+        <v>3.929744980711263</v>
       </c>
       <c r="D3" t="n">
-        <v>575.104008069643</v>
+        <v>575.1040080696414</v>
       </c>
       <c r="E3" t="n">
         <v>475.7216868238203</v>
       </c>
       <c r="F3" t="n">
-        <v>268.2643481230878</v>
+        <v>268.2643481230875</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>38.48106384277808</v>
       </c>
       <c r="C4" t="n">
-        <v>1.486154901825127</v>
+        <v>1.486154901825659</v>
       </c>
       <c r="D4" t="n">
-        <v>223.7466612569029</v>
+        <v>223.7466612569023</v>
       </c>
       <c r="E4" t="n">
-        <v>567.6875754007867</v>
+        <v>567.687575400787</v>
       </c>
       <c r="F4" t="n">
-        <v>328.7438349237137</v>
+        <v>328.7438349237138</v>
       </c>
       <c r="G4" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908086</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>38.48106384277798</v>
       </c>
       <c r="K4" t="n">
-        <v>1.486154901825355</v>
+        <v>1.486154901825659</v>
       </c>
       <c r="L4" t="n">
-        <v>210.7875996878217</v>
+        <v>210.7875996878212</v>
       </c>
       <c r="M4" t="n">
-        <v>567.6875754007865</v>
+        <v>567.6875754007867</v>
       </c>
       <c r="N4" t="n">
-        <v>328.743834923714</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="O4" t="n">
-        <v>12.95906156908086</v>
+        <v>12.9590615690804</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>38.48106384277808</v>
       </c>
       <c r="K4" t="n">
-        <v>1.486154901825127</v>
+        <v>1.486154901825659</v>
       </c>
       <c r="L4" t="n">
-        <v>223.7466612569029</v>
+        <v>223.7466612569023</v>
       </c>
       <c r="M4" t="n">
-        <v>567.6875754007867</v>
+        <v>567.687575400787</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237137</v>
+        <v>328.7438349237138</v>
       </c>
       <c r="O4" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908086</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>344.2527778207025</v>
       </c>
       <c r="C2" t="n">
-        <v>326.7918279282295</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>335.9508691152835</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>343.4493062294837</v>
       </c>
       <c r="F2" t="n">
-        <v>216.436896099659</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>102.5442178425012</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>193.9557137627098</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>32.04039612791337</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27473,10 +27473,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>73.02686326066636</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>48.32201337990931</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,19 +27506,19 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>131.802908778555</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>187.4553623994157</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>194.3195233066472</v>
       </c>
       <c r="W3" t="n">
-        <v>213.2139193181415</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.3509163391592</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>128.7657572558497</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,13 +27555,13 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>115.0702253392529</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>267.3537142553149</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>218.2435222911091</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>180.1035895093167</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>325.3056730264038</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9088269971082</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>379.9430242873013</v>
+        <v>375.178931812944</v>
       </c>
       <c r="H5" t="n">
-        <v>337.8711559363765</v>
+        <v>337.8711559363764</v>
       </c>
       <c r="I5" t="n">
-        <v>204.4390708880224</v>
+        <v>204.4390708880222</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>100.0656937220047</v>
+        <v>140.0329124666075</v>
       </c>
       <c r="S5" t="n">
-        <v>165.484625545622</v>
+        <v>205.4518442902251</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4103901572931</v>
+        <v>222.410390157293</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3331259512295</v>
+        <v>211.3659072066257</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>299.4251779415994</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126.5659649052641</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>117.6778617107977</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>137.2597357547242</v>
       </c>
       <c r="H6" t="n">
-        <v>111.4262922124301</v>
+        <v>111.42629221243</v>
       </c>
       <c r="I6" t="n">
-        <v>86.51205365571974</v>
+        <v>46.54483491111586</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.95603758012552</v>
+        <v>94.95603758012533</v>
       </c>
       <c r="S6" t="n">
         <v>170.126968187434</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8270308246504</v>
+        <v>164.6239045544034</v>
       </c>
       <c r="U6" t="n">
         <v>225.935870146206</v>
       </c>
       <c r="V6" t="n">
-        <v>197.5974608791788</v>
+        <v>192.8333684048215</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>165.8057664588742</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>165.7154770327006</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>127.2796023540241</v>
       </c>
       <c r="D7" t="n">
-        <v>127.5212836091947</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,19 +27786,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>127.9535210953804</v>
+        <v>167.9207398399836</v>
       </c>
       <c r="H7" t="n">
-        <v>121.6354605894849</v>
+        <v>121.6354605894843</v>
       </c>
       <c r="I7" t="n">
-        <v>153.3381810443885</v>
+        <v>118.1350547741415</v>
       </c>
       <c r="J7" t="n">
-        <v>88.39324616048232</v>
+        <v>88.39324616048214</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.10893686122857</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>40.31322264641607</v>
+        <v>80.28044139101905</v>
       </c>
       <c r="R7" t="n">
-        <v>174.1351672100976</v>
+        <v>174.1351672100975</v>
       </c>
       <c r="S7" t="n">
         <v>222.7925147922741</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6454751220697</v>
+        <v>187.6782563774659</v>
       </c>
       <c r="U7" t="n">
         <v>286.3151981100286</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619745</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,10 +27862,10 @@
         <v>118.2164900707557</v>
       </c>
       <c r="F8" t="n">
+        <v>251.3134900307094</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>149.1202946442039</v>
       </c>
       <c r="H8" t="n">
         <v>314.193632629268</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T8" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1481678782825</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>128.1982616984114</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>8.692527067563276</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>179.1332776268575</v>
       </c>
     </row>
     <row r="10">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H10" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I10" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>206.4730029379038</v>
+        <v>69.16321724001784</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117141</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>25.09492261467054</v>
       </c>
       <c r="T32" t="n">
-        <v>0.1016809079480936</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>25.09492261467054</v>
+        <v>0.1016809079489462</v>
       </c>
     </row>
     <row r="33">
@@ -29986,67 +29986,67 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>25.09492261467054</v>
       </c>
-      <c r="D35" t="n">
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>25.09492261467054</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0.1016809079496284</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>0.1016809079505947</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30229,16 +30229,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.1016809079487757</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1016809079490031</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30286,10 +30286,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>25.09492261467054</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>25.09492261467054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="C40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="D40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="E40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="F40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="G40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="H40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="I40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="J40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="K40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="L40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="M40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="N40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="O40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="P40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="R40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="S40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="T40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="U40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="V40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="W40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="X40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
     </row>
     <row r="41">
@@ -30466,13 +30466,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>25.09492261467053</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1016809079505094</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30523,10 +30523,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>0.1016809079507652</v>
       </c>
       <c r="Y41" t="n">
-        <v>25.09492261467053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="C43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="D43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="E43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="F43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="G43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="H43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="I43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="J43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="K43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="L43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="M43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="N43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="R43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="S43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="T43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="U43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="V43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="W43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="X43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.09492261467053</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
     <row r="44">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="G44" t="n">
         <v>0.1016809079508221</v>
@@ -30760,10 +30760,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>25.09492261467054</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>25.09492261467054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="C46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="D46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="E46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="F46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="G46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="H46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="I46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="J46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="K46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="L46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="M46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="N46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="O46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="P46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="R46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="S46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="T46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="U46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="V46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="W46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="X46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.09492261467054</v>
+        <v>25.09492261467057</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1565869575872766</v>
+        <v>0.1565869575872826</v>
       </c>
       <c r="H5" t="n">
-        <v>1.603646179390697</v>
+        <v>1.603646179390759</v>
       </c>
       <c r="I5" t="n">
-        <v>6.036818682383489</v>
+        <v>6.03681868238372</v>
       </c>
       <c r="J5" t="n">
-        <v>13.29012229152313</v>
+        <v>13.29012229152364</v>
       </c>
       <c r="K5" t="n">
-        <v>19.91844820619256</v>
+        <v>19.91844820619332</v>
       </c>
       <c r="L5" t="n">
-        <v>24.71059630945418</v>
+        <v>24.71059630945513</v>
       </c>
       <c r="M5" t="n">
-        <v>27.49529961644691</v>
+        <v>27.49529961644796</v>
       </c>
       <c r="N5" t="n">
-        <v>27.94020230969176</v>
+        <v>27.94020230969283</v>
       </c>
       <c r="O5" t="n">
-        <v>26.38314075018328</v>
+        <v>26.38314075018429</v>
       </c>
       <c r="P5" t="n">
-        <v>22.51740023474738</v>
+        <v>22.51740023474824</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.90962981615303</v>
+        <v>16.90962981615368</v>
       </c>
       <c r="R5" t="n">
-        <v>9.836205474541774</v>
+        <v>9.836205474542151</v>
       </c>
       <c r="S5" t="n">
-        <v>3.56822529602007</v>
+        <v>3.568225296020207</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6854594068383039</v>
+        <v>0.6854594068383301</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01252695660698213</v>
+        <v>0.01252695660698261</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08378140848643775</v>
+        <v>0.08378140848644096</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8091520240663858</v>
+        <v>0.8091520240664167</v>
       </c>
       <c r="I6" t="n">
-        <v>2.884579195695335</v>
+        <v>2.884579195695446</v>
       </c>
       <c r="J6" t="n">
-        <v>7.915505790378754</v>
+        <v>7.915505790379057</v>
       </c>
       <c r="K6" t="n">
-        <v>13.52886015897008</v>
+        <v>13.5288601589706</v>
       </c>
       <c r="L6" t="n">
-        <v>18.19122204877676</v>
+        <v>18.19122204877745</v>
       </c>
       <c r="M6" t="n">
-        <v>21.22829810641012</v>
+        <v>21.22829810641094</v>
       </c>
       <c r="N6" t="n">
-        <v>21.79014799051435</v>
+        <v>21.79014799051519</v>
       </c>
       <c r="O6" t="n">
-        <v>19.93372836036749</v>
+        <v>19.93372836036826</v>
       </c>
       <c r="P6" t="n">
-        <v>15.99857439773038</v>
+        <v>15.99857439773099</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.69462330083019</v>
+        <v>10.6946233008306</v>
       </c>
       <c r="R6" t="n">
-        <v>5.201796572517602</v>
+        <v>5.201796572517801</v>
       </c>
       <c r="S6" t="n">
-        <v>1.556202916403788</v>
+        <v>1.556202916403848</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3376978701712117</v>
+        <v>0.3376978701712246</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005511934768844591</v>
+        <v>0.005511934768844803</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07023951847511245</v>
+        <v>0.07023951847511514</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6244931733514548</v>
+        <v>0.6244931733514788</v>
       </c>
       <c r="I7" t="n">
-        <v>2.112293882869746</v>
+        <v>2.112293882869827</v>
       </c>
       <c r="J7" t="n">
-        <v>4.96593395619045</v>
+        <v>4.96593395619064</v>
       </c>
       <c r="K7" t="n">
-        <v>8.160554964653972</v>
+        <v>8.160554964654285</v>
       </c>
       <c r="L7" t="n">
-        <v>10.44270077401808</v>
+        <v>10.44270077401849</v>
       </c>
       <c r="M7" t="n">
-        <v>11.0103637915124</v>
+        <v>11.01036379151282</v>
       </c>
       <c r="N7" t="n">
-        <v>10.74856194992335</v>
+        <v>10.74856194992377</v>
       </c>
       <c r="O7" t="n">
-        <v>9.928036665918626</v>
+        <v>9.928036665919006</v>
       </c>
       <c r="P7" t="n">
-        <v>8.495150489026324</v>
+        <v>8.495150489026651</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.881601860675099</v>
+        <v>5.881601860675325</v>
       </c>
       <c r="R7" t="n">
-        <v>3.158224167071874</v>
+        <v>3.158224167071995</v>
       </c>
       <c r="S7" t="n">
-        <v>1.224083244698096</v>
+        <v>1.224083244698143</v>
       </c>
       <c r="T7" t="n">
-        <v>0.300114306211844</v>
+        <v>0.3001143062118555</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003831246462278866</v>
+        <v>0.003831246462279012</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32087,16 +32087,16 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>588.0362461348411</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,28 +32309,28 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>139.426702093682</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>218.5059968446705</v>
       </c>
       <c r="O18" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>372.8719498286953</v>
@@ -32546,25 +32546,25 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>151.1434552068895</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>661.8050645494873</v>
       </c>
       <c r="P21" t="n">
         <v>557.7961431982454</v>
@@ -32783,19 +32783,19 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>151.1434552068895</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504302</v>
+        <v>383.7393053889593</v>
       </c>
       <c r="N24" t="n">
         <v>759.7214730927639</v>
@@ -32804,13 +32804,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R24" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.25758340862161</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>571.4938338238233</v>
+        <v>661.8050645494873</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S27" t="n">
         <v>54.25758340862161</v>
@@ -33260,19 +33260,19 @@
         <v>100.5719078530531</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>366.8718505518654</v>
       </c>
       <c r="L30" t="n">
-        <v>151.1434552068895</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>694.9967242426205</v>
@@ -33281,7 +33281,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>181.3625385436714</v>
@@ -33509,16 +33509,16 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927639</v>
+        <v>531.907150945554</v>
       </c>
       <c r="O33" t="n">
-        <v>571.4938338238237</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,10 +33734,10 @@
         <v>100.5719078530531</v>
       </c>
       <c r="J36" t="n">
-        <v>139.4267020936821</v>
+        <v>229.4012231671338</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,7 +33752,7 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>372.8719498286953</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33983,19 +33983,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>344.3187317059969</v>
+        <v>554.9859068861308</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>419.9237601200353</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>726.5298133996308</v>
       </c>
       <c r="O42" t="n">
         <v>694.9967242426205</v>
@@ -34366,7 +34366,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874073</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
         <v>694.4639760830431</v>
@@ -34378,7 +34378,7 @@
         <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229617</v>
       </c>
       <c r="O44" t="n">
         <v>919.8578442086953</v>
@@ -34442,25 +34442,25 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>139.4267020936821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426205</v>
+        <v>358.3392732200426</v>
       </c>
       <c r="P45" t="n">
         <v>557.7961431982454</v>
@@ -34702,22 +34702,22 @@
         <v>38.48106384277808</v>
       </c>
       <c r="L2" t="n">
+        <v>31.71334579105918</v>
+      </c>
+      <c r="M2" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="M2" t="n">
-        <v>36.92627338448403</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="O2" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>38.48106384277808</v>
+      </c>
+      <c r="M3" t="n">
         <v>36.92627338448402</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="O3" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>38.48106384277808</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.340832936910616</v>
+        <v>1.340832936911124</v>
       </c>
       <c r="K5" t="n">
-        <v>39.96721874460322</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>39.96721874460322</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="M5" t="n">
-        <v>30.0926180850903</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>30.09261808508967</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.96721874460322</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.918930601608228</v>
+        <v>6.918930601608874</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.96721874460322</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>38.35238162360969</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="O6" t="n">
-        <v>38.35238162360914</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.96721874460322</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.96721874460322</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>38.03272603433422</v>
+        <v>38.03272603433462</v>
       </c>
       <c r="M7" t="n">
-        <v>39.96721874460322</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="N7" t="n">
-        <v>39.96721874460322</v>
+        <v>39.96721874460377</v>
       </c>
       <c r="O7" t="n">
-        <v>34.5131645799583</v>
+        <v>34.51316457995868</v>
       </c>
       <c r="P7" t="n">
-        <v>5.773709753919812</v>
+        <v>5.773709753920139</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>456.6945340515078</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N17" t="n">
         <v>744.73230092637</v>
@@ -35905,7 +35905,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>12.58907542701531</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>87.16428476133723</v>
       </c>
       <c r="O18" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>232.8901757426738</v>
@@ -36127,7 +36127,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311495</v>
       </c>
       <c r="N20" t="n">
         <v>744.73230092637</v>
@@ -36142,7 +36142,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>12.58907542701531</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>519.2088201050428</v>
       </c>
       <c r="P21" t="n">
         <v>423.8217357839152</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
         <v>474.3741250380626</v>
@@ -36373,7 +36373,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q23" t="n">
         <v>367.2547334404112</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>12.58907542701531</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284119</v>
+        <v>241.605271466941</v>
       </c>
       <c r="N24" t="n">
         <v>628.3797610094306</v>
@@ -36452,13 +36452,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R24" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380626</v>
+        <v>525.686772867153</v>
       </c>
       <c r="L26" t="n">
         <v>625.7775560664393</v>
@@ -36616,7 +36616,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>428.8975893793788</v>
+        <v>519.2088201050428</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>333.6317139898116</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K29" t="n">
         <v>474.3741250380626</v>
@@ -36853,7 +36853,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>1.049527853053121</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>229.0304115775064</v>
       </c>
       <c r="L30" t="n">
-        <v>12.5890754270153</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>552.4004797981761</v>
@@ -36929,7 +36929,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>35.68303457970742</v>
@@ -37157,16 +37157,16 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094306</v>
+        <v>400.5654388622207</v>
       </c>
       <c r="O33" t="n">
-        <v>428.8975893793793</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>1.049527853053121</v>
       </c>
       <c r="J36" t="n">
-        <v>12.58907542701538</v>
+        <v>102.5635965004671</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>232.8901757426738</v>
@@ -37470,7 +37470,7 @@
         <v>416.7735267390486</v>
       </c>
       <c r="M37" t="n">
-        <v>448.5591570030133</v>
+        <v>448.5591570030134</v>
       </c>
       <c r="N37" t="n">
         <v>443.9796355355866</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,19 +37631,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>210.3443242916667</v>
+        <v>421.0114994718006</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>277.789726198017</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>595.1881013162975</v>
       </c>
       <c r="O42" t="n">
         <v>552.4004797981761</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>104.874844725331</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K43" t="n">
-        <v>287.3461619788762</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L43" t="n">
-        <v>416.7735267390485</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M43" t="n">
-        <v>448.5591570030133</v>
+        <v>448.5591570030134</v>
       </c>
       <c r="N43" t="n">
         <v>443.9796355355866</v>
@@ -37953,7 +37953,7 @@
         <v>395.8246771753065</v>
       </c>
       <c r="P43" t="n">
-        <v>318.5600083078064</v>
+        <v>318.5600083078065</v>
       </c>
       <c r="Q43" t="n">
         <v>143.9970777191504</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.319066160721</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
         <v>474.3741250380626</v>
@@ -38026,7 +38026,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263707</v>
       </c>
       <c r="O44" t="n">
         <v>689.7596327870085</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>12.5890754270154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981761</v>
+        <v>215.7430287755981</v>
       </c>
       <c r="P45" t="n">
         <v>423.8217357839152</v>
